--- a/04_retirement_template.xlsx
+++ b/04_retirement_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_0165EAA169779FB30A2ABC6DB60B5C8824465865" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDC77EC5-6A2A-DF43-AE69-ECDF7984EEB7}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_0165EAA169779FB30A2ABC6DB60B5C8824465865" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4849736F-2715-B040-95E1-F3813596761C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="215">
   <si>
     <t>Asset Mass Retirement</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>MPA_RETIREMENT_PARTIAL_SUB_SUB</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1955,7 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2774,7 +2777,7 @@
     </row>
     <row r="15" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>195</v>
@@ -2829,7 +2832,7 @@
     </row>
     <row r="16" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>195</v>

--- a/04_retirement_template.xlsx
+++ b/04_retirement_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_0165EAA169779FB30A2ABC6DB60B5C8824465865" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4849736F-2715-B040-95E1-F3813596761C}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_0165EAA169779FB30A2ABC6DB60B5C8824465865" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6A3B239-0518-B141-84F6-33FCD3499F3F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,15 @@
     <sheet name="Field List" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$5:$AJ$14</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="215">
   <si>
     <t>Asset Mass Retirement</t>
   </si>
@@ -739,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -758,6 +761,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1954,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2775,66 +2779,44 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
     </row>
-    <row r="15" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-    </row>
-    <row r="16" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="J15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O15" s="1">
+        <v>10</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2843,52 +2825,27 @@
       <c r="D16" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="1">
+        <v>250</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
+      <c r="J16" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:AJ14" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/04_retirement_template.xlsx
+++ b/04_retirement_template.xlsx
@@ -5,27 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/new_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_0165EAA169779FB30A2ABC6DB60B5C8824465865" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6A3B239-0518-B141-84F6-33FCD3499F3F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_38894BBF6D7F5AC1C8DB0226B027BF8B176A68C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE846B18-F4EA-3C4E-A08B-0256864189EC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21860" windowHeight="14940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
     <sheet name="Field List" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$5:$AJ$14</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="216">
   <si>
     <t>Asset Mass Retirement</t>
   </si>
@@ -93,13 +90,13 @@
     <t>BLDAT</t>
   </si>
   <si>
-    <t>*Document Date in Document (YYYY-MM-DD)</t>
+    <t>*Document Date in Document (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>BUDAT</t>
   </si>
   <si>
-    <t>*Posting Date in the Document (YYYY-MM-DD)</t>
+    <t>*Posting Date in the Document (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>MONAT</t>
@@ -117,228 +114,231 @@
     <t>ANBTR</t>
   </si>
   <si>
+    <t>Amount posted (23)</t>
+  </si>
+  <si>
+    <t>BF_ERLBT</t>
+  </si>
+  <si>
+    <t>Revenue from asset sale (23)</t>
+  </si>
+  <si>
+    <t>BF_VERKO_D</t>
+  </si>
+  <si>
+    <t>Costs from asset retirement (23)</t>
+  </si>
+  <si>
+    <t>WAERS</t>
+  </si>
+  <si>
+    <t>Currency Key (5)</t>
+  </si>
+  <si>
+    <t>MENGE_D</t>
+  </si>
+  <si>
+    <t>Quantity (13)</t>
+  </si>
+  <si>
+    <t>MEINS</t>
+  </si>
+  <si>
+    <t>Base Unit of Measure (3)</t>
+  </si>
+  <si>
+    <t>BF_PROZS</t>
+  </si>
+  <si>
+    <t>Asset retirement: Percentage rate (5)</t>
+  </si>
+  <si>
+    <t>BF_XERBW</t>
+  </si>
+  <si>
+    <t>Indicator: Determine revenue from net book value (1)</t>
+  </si>
+  <si>
+    <t>AFABE_RBWE</t>
+  </si>
+  <si>
+    <t>Base depreciation area for determining net book value (2)</t>
+  </si>
+  <si>
+    <t>BZDAT</t>
+  </si>
+  <si>
+    <t>*Asset Value Date (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>RASSC</t>
+  </si>
+  <si>
+    <t>Company ID of Trading Partner (6)</t>
+  </si>
+  <si>
+    <t>PARGB</t>
+  </si>
+  <si>
+    <t>Trading partner's business area (4)</t>
+  </si>
+  <si>
+    <t>AUFNR</t>
+  </si>
+  <si>
+    <t>Order Number (12)</t>
+  </si>
+  <si>
+    <t>PS_PSP_PNR</t>
+  </si>
+  <si>
+    <t>Work Breakdown Structure Element (WBS Element) (8)</t>
+  </si>
+  <si>
+    <t>BP_GEBER</t>
+  </si>
+  <si>
+    <t>Fund (10)</t>
+  </si>
+  <si>
+    <t>IMKEY</t>
+  </si>
+  <si>
+    <t>Internal Key for Real Estate Object (8)</t>
+  </si>
+  <si>
+    <t>SBERI</t>
+  </si>
+  <si>
+    <t>Correction item number (10)</t>
+  </si>
+  <si>
+    <t>GM_GRANT_NBR</t>
+  </si>
+  <si>
+    <t>Grant (20)</t>
+  </si>
+  <si>
+    <t>FKBER</t>
+  </si>
+  <si>
+    <t>Functional Area (16)</t>
+  </si>
+  <si>
+    <t>BKTXT</t>
+  </si>
+  <si>
+    <t>Document Header Text (25)</t>
+  </si>
+  <si>
+    <t>XBLNR</t>
+  </si>
+  <si>
+    <t>Reference Document Number (16)</t>
+  </si>
+  <si>
+    <t>SGTXT</t>
+  </si>
+  <si>
+    <t>Item Text (50)</t>
+  </si>
+  <si>
+    <t>ZUONR</t>
+  </si>
+  <si>
+    <t>Assignment number (18)</t>
+  </si>
+  <si>
+    <t>FIELD NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>IMPORTANCE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>Row Number</t>
+  </si>
+  <si>
+    <t>Mandatory for sheet</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Main Asset Number</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Asset Subnumber</t>
+  </si>
+  <si>
+    <t>Asset Transaction Type</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Accounting Principle</t>
+  </si>
+  <si>
+    <t>Posting Depreciation Area</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Target Ledger Group</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Document Date in Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Posting Date in the Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Fiscal period</t>
+  </si>
+  <si>
+    <t>Indicator: Post complete retirement</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Amount posted</t>
   </si>
   <si>
-    <t>BF_ERLBT</t>
-  </si>
-  <si>
-    <t>Revenue from asset sale (23)</t>
-  </si>
-  <si>
-    <t>BF_VERKO_D</t>
-  </si>
-  <si>
-    <t>Costs from asset retirement (23)</t>
-  </si>
-  <si>
-    <t>WAERS</t>
-  </si>
-  <si>
-    <t>Currency Key (5)</t>
-  </si>
-  <si>
-    <t>MENGE_D</t>
-  </si>
-  <si>
-    <t>Quantity (13)</t>
-  </si>
-  <si>
-    <t>MEINS</t>
-  </si>
-  <si>
-    <t>Base Unit of Measure (3)</t>
-  </si>
-  <si>
-    <t>BF_PROZS</t>
-  </si>
-  <si>
-    <t>Asset retirement: Percentage rate (5)</t>
-  </si>
-  <si>
-    <t>BF_XERBW</t>
-  </si>
-  <si>
-    <t>Indicator: Determine revenue from net book value (1)</t>
-  </si>
-  <si>
-    <t>AFABE_RBWE</t>
-  </si>
-  <si>
-    <t>Base depreciation area for determining net book value (2)</t>
-  </si>
-  <si>
-    <t>BZDAT</t>
-  </si>
-  <si>
-    <t>*Asset Value Date (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>RASSC</t>
-  </si>
-  <si>
-    <t>Company ID of Trading Partner (6)</t>
-  </si>
-  <si>
-    <t>PARGB</t>
-  </si>
-  <si>
-    <t>Trading partner's business area (4)</t>
-  </si>
-  <si>
-    <t>AUFNR</t>
-  </si>
-  <si>
-    <t>Order Number (12)</t>
-  </si>
-  <si>
-    <t>PS_PSP_PNR</t>
-  </si>
-  <si>
-    <t>Work Breakdown Structure Element (WBS Element) (8)</t>
-  </si>
-  <si>
-    <t>BP_GEBER</t>
-  </si>
-  <si>
-    <t>Fund (10)</t>
-  </si>
-  <si>
-    <t>IMKEY</t>
-  </si>
-  <si>
-    <t>Internal Key for Real Estate Object (8)</t>
-  </si>
-  <si>
-    <t>SBERI</t>
-  </si>
-  <si>
-    <t>Correction item number (10)</t>
-  </si>
-  <si>
-    <t>GM_GRANT_NBR</t>
-  </si>
-  <si>
-    <t>Grant (20)</t>
-  </si>
-  <si>
-    <t>FKBER</t>
-  </si>
-  <si>
-    <t>Functional Area (16)</t>
-  </si>
-  <si>
-    <t>BKTXT</t>
-  </si>
-  <si>
-    <t>Document Header Text (25)</t>
-  </si>
-  <si>
-    <t>XBLNR</t>
-  </si>
-  <si>
-    <t>Reference Document Number (16)</t>
-  </si>
-  <si>
-    <t>SGTXT</t>
-  </si>
-  <si>
-    <t>Item Text (50)</t>
-  </si>
-  <si>
-    <t>ZUONR</t>
-  </si>
-  <si>
-    <t>Assignment number (18)</t>
-  </si>
-  <si>
-    <t>FIELD NAME</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>IMPORTANCE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
-    <t>Row Number</t>
-  </si>
-  <si>
-    <t>Mandatory for sheet</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Company Code</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Main Asset Number</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Asset Subnumber</t>
-  </si>
-  <si>
-    <t>Asset Transaction Type</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Accounting Principle</t>
-  </si>
-  <si>
-    <t>Posting Depreciation Area</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Target Ledger Group</t>
-  </si>
-  <si>
-    <t>Document Type</t>
-  </si>
-  <si>
-    <t>Document Date in Document</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Posting Date in the Document</t>
-  </si>
-  <si>
-    <t>Fiscal period</t>
-  </si>
-  <si>
-    <t>Indicator: Post complete retirement</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -372,7 +372,7 @@
     <t>Base depreciation area for determining net book value</t>
   </si>
   <si>
-    <t>Asset Value Date</t>
+    <t>Asset Value Date (YYYY-MM-DD)</t>
   </si>
   <si>
     <t>Company ID of Trading Partner</t>
@@ -615,6 +615,9 @@
     <t>1710</t>
   </si>
   <si>
+    <t>MPA_RETIREMENT_PARTIAL_MAIN</t>
+  </si>
+  <si>
     <t>250</t>
   </si>
   <si>
@@ -636,6 +639,12 @@
     <t>260</t>
   </si>
   <si>
+    <t>MPA_RETIREMENT_PARTIAL_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_PARTIAL_SUB_SUB</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
@@ -654,22 +663,13 @@
     <t>MPA_RETIREMENT_FULL_MAIN</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_FULL_MAIN_SUB</t>
+  </si>
+  <si>
     <t>MPA_RETIREMENT_FULL_SUB_SUB</t>
-  </si>
-  <si>
-    <t>MPA_RETIREMENT_FULL_MAIN_SUB</t>
-  </si>
-  <si>
-    <t>MPA_RETIREMENT_PARTIAL_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_RETIREMENT_PARTIAL_SUB_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_RETIREMENT_PARTIAL_SUB_SUB</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
 </sst>
 </file>
@@ -745,13 +745,13 @@
   <cellXfs count="11">
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1087,302 +1087,302 @@
   <sheetData>
     <row r="1" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1423,29 +1423,46 @@
         <v>79</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -1454,119 +1471,119 @@
         <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
       </c>
       <c r="D6" t="s">
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
         <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
@@ -1580,372 +1597,355 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
         <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
         <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
         <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
         <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
         <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
         <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
         <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
         <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
         <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
         <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1958,26 +1958,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -1986,7 +1986,7 @@
     <col min="20" max="20" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="57" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17" style="1" bestFit="1" customWidth="1"/>
@@ -2008,12 +2008,12 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2242,34 +2242,34 @@
         <v>103</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -2277,7 +2277,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
@@ -2291,10 +2291,10 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2302,24 +2302,24 @@
         <v>94</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -2339,7 +2339,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
@@ -2353,47 +2353,47 @@
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ7" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -2401,7 +2401,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -2415,49 +2415,49 @@
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ8" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -2465,7 +2465,7 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -2479,35 +2479,35 @@
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
       <c r="AI9" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ9" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -2517,7 +2517,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -2545,29 +2545,29 @@
     </row>
     <row r="11" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -2583,7 +2583,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
@@ -2604,26 +2604,26 @@
         <v>88</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -2659,33 +2659,33 @@
     </row>
     <row r="13" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -2701,7 +2701,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
@@ -2719,33 +2719,33 @@
     </row>
     <row r="14" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -2781,71 +2781,70 @@
     </row>
     <row r="15" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O15" s="1">
         <v>10</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E16" s="1">
         <v>250</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AJ14" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/04_retirement_template.xlsx
+++ b/04_retirement_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/new_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i503773/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_38894BBF6D7F5AC1C8DB0226B027BF8B176A68C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE846B18-F4EA-3C4E-A08B-0256864189EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C1E7AC-EA1F-4944-8DF6-4003BDC56E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21860" windowHeight="14940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="176">
   <si>
     <t>Asset Mass Retirement</t>
   </si>
@@ -57,58 +57,58 @@
     <t>Asset Subnumber (4)</t>
   </si>
   <si>
+    <t>LEDGER</t>
+  </si>
+  <si>
+    <t>Ledger in General Ledger Accounting (2)</t>
+  </si>
+  <si>
+    <t>AFABE</t>
+  </si>
+  <si>
+    <t>Posting Depreciation Area (2)</t>
+  </si>
+  <si>
+    <t>BLDAT</t>
+  </si>
+  <si>
+    <t>*Document Date in Document (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>BUDAT</t>
+  </si>
+  <si>
+    <t>*Posting Date in the Document (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>BZDAT</t>
+  </si>
+  <si>
+    <t>*Asset Value Date (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>SGTXT</t>
+  </si>
+  <si>
+    <t>Item Text (50)</t>
+  </si>
+  <si>
+    <t>BLART</t>
+  </si>
+  <si>
+    <t>Document Type (2)</t>
+  </si>
+  <si>
+    <t>MONAT</t>
+  </si>
+  <si>
+    <t>Fiscal period (2)</t>
+  </si>
+  <si>
     <t>BWASL</t>
   </si>
   <si>
-    <t>*Asset Transaction Type (3)</t>
-  </si>
-  <si>
-    <t>ACC_PRINCIPLE</t>
-  </si>
-  <si>
-    <t>Accounting Principle (4)</t>
-  </si>
-  <si>
-    <t>AFABE</t>
-  </si>
-  <si>
-    <t>Posting Depreciation Area (2)</t>
-  </si>
-  <si>
-    <t>BF_TARGET_LDGRP</t>
-  </si>
-  <si>
-    <t>Target Ledger Group (4)</t>
-  </si>
-  <si>
-    <t>BLART</t>
-  </si>
-  <si>
-    <t>Document Type (2)</t>
-  </si>
-  <si>
-    <t>BLDAT</t>
-  </si>
-  <si>
-    <t>*Document Date in Document (YYYY-MM-DD) (8)</t>
-  </si>
-  <si>
-    <t>BUDAT</t>
-  </si>
-  <si>
-    <t>*Posting Date in the Document (YYYY-MM-DD) (8)</t>
-  </si>
-  <si>
-    <t>MONAT</t>
-  </si>
-  <si>
-    <t>Fiscal period (2)</t>
-  </si>
-  <si>
-    <t>BF_XVABG</t>
-  </si>
-  <si>
-    <t>Indicator: Post complete retirement (1)</t>
+    <t>Asset Transaction Type (3)</t>
   </si>
   <si>
     <t>ANBTR</t>
@@ -117,58 +117,40 @@
     <t>Amount posted (23)</t>
   </si>
   <si>
-    <t>BF_ERLBT</t>
+    <t>ERLBT</t>
   </si>
   <si>
     <t>Revenue from asset sale (23)</t>
   </si>
   <si>
-    <t>BF_VERKO_D</t>
-  </si>
-  <si>
-    <t>Costs from asset retirement (23)</t>
-  </si>
-  <si>
     <t>WAERS</t>
   </si>
   <si>
     <t>Currency Key (5)</t>
   </si>
   <si>
+    <t>AFABE_RBWE</t>
+  </si>
+  <si>
+    <t>Base depreciation area for determining net book value (2)</t>
+  </si>
+  <si>
     <t>MENGE_D</t>
   </si>
   <si>
     <t>Quantity (13)</t>
   </si>
   <si>
-    <t>MEINS</t>
-  </si>
-  <si>
-    <t>Base Unit of Measure (3)</t>
-  </si>
-  <si>
-    <t>BF_PROZS</t>
+    <t>PROZS</t>
   </si>
   <si>
     <t>Asset retirement: Percentage rate (5)</t>
   </si>
   <si>
-    <t>BF_XERBW</t>
-  </si>
-  <si>
-    <t>Indicator: Determine revenue from net book value (1)</t>
-  </si>
-  <si>
-    <t>AFABE_RBWE</t>
-  </si>
-  <si>
-    <t>Base depreciation area for determining net book value (2)</t>
-  </si>
-  <si>
-    <t>BZDAT</t>
-  </si>
-  <si>
-    <t>*Asset Value Date (YYYY-MM-DD) (8)</t>
+    <t>XANEU</t>
+  </si>
+  <si>
+    <t>Indicator: Transaction Relates to Curr.-Yr Acquisition (1)</t>
   </si>
   <si>
     <t>RASSC</t>
@@ -183,66 +165,18 @@
     <t>Trading partner's business area (4)</t>
   </si>
   <si>
-    <t>AUFNR</t>
-  </si>
-  <si>
-    <t>Order Number (12)</t>
-  </si>
-  <si>
     <t>PS_PSP_PNR</t>
   </si>
   <si>
     <t>Work Breakdown Structure Element (WBS Element) (8)</t>
   </si>
   <si>
-    <t>BP_GEBER</t>
-  </si>
-  <si>
-    <t>Fund (10)</t>
-  </si>
-  <si>
-    <t>IMKEY</t>
-  </si>
-  <si>
-    <t>Internal Key for Real Estate Object (8)</t>
-  </si>
-  <si>
-    <t>SBERI</t>
-  </si>
-  <si>
-    <t>Correction item number (10)</t>
-  </si>
-  <si>
-    <t>GM_GRANT_NBR</t>
-  </si>
-  <si>
-    <t>Grant (20)</t>
-  </si>
-  <si>
-    <t>FKBER</t>
-  </si>
-  <si>
-    <t>Functional Area (16)</t>
-  </si>
-  <si>
-    <t>BKTXT</t>
-  </si>
-  <si>
-    <t>Document Header Text (25)</t>
-  </si>
-  <si>
     <t>XBLNR</t>
   </si>
   <si>
     <t>Reference Document Number (16)</t>
   </si>
   <si>
-    <t>SGTXT</t>
-  </si>
-  <si>
-    <t>Item Text (50)</t>
-  </si>
-  <si>
     <t>ZUONR</t>
   </si>
   <si>
@@ -270,7 +204,7 @@
     <t>Mandatory for sheet</t>
   </si>
   <si>
-    <t>number</t>
+    <t>Number</t>
   </si>
   <si>
     <t>10</t>
@@ -279,7 +213,7 @@
     <t>Company Code</t>
   </si>
   <si>
-    <t>text</t>
+    <t>Text</t>
   </si>
   <si>
     <t>4</t>
@@ -294,87 +228,81 @@
     <t>Asset Subnumber</t>
   </si>
   <si>
+    <t>Ledger in General Ledger Accounting</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Posting Depreciation Area</t>
+  </si>
+  <si>
+    <t>Document Date in Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Posting Date in the Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Asset Value Date (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Item Text</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Fiscal period</t>
+  </si>
+  <si>
     <t>Asset Transaction Type</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Accounting Principle</t>
-  </si>
-  <si>
-    <t>Posting Depreciation Area</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Target Ledger Group</t>
-  </si>
-  <si>
-    <t>Document Type</t>
-  </si>
-  <si>
-    <t>Document Date in Document (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Posting Date in the Document (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>Fiscal period</t>
-  </si>
-  <si>
-    <t>Indicator: Post complete retirement</t>
+    <t>Amount posted</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Revenue from asset sale</t>
+  </si>
+  <si>
+    <t>Currency Key</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Base depreciation area for determining net book value</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Asset retirement: Percentage rate</t>
+  </si>
+  <si>
+    <t>Indicator: Transaction Relates to Curr.-Yr Acquisition</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Amount posted</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Revenue from asset sale</t>
-  </si>
-  <si>
-    <t>Costs from asset retirement</t>
-  </si>
-  <si>
-    <t>Currency Key</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Base Unit of Measure</t>
-  </si>
-  <si>
-    <t>Asset retirement: Percentage rate</t>
-  </si>
-  <si>
-    <t>Indicator: Determine revenue from net book value</t>
-  </si>
-  <si>
-    <t>Base depreciation area for determining net book value</t>
-  </si>
-  <si>
-    <t>Asset Value Date (YYYY-MM-DD)</t>
-  </si>
-  <si>
     <t>Company ID of Trading Partner</t>
   </si>
   <si>
@@ -384,48 +312,15 @@
     <t>Trading partner's business area</t>
   </si>
   <si>
-    <t>Order Number</t>
-  </si>
-  <si>
     <t>Work Breakdown Structure Element (WBS Element)</t>
   </si>
   <si>
-    <t>Fund</t>
-  </si>
-  <si>
-    <t>Internal Key for Real Estate Object</t>
-  </si>
-  <si>
-    <t>Correction item number</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Functional Area</t>
+    <t>Reference Document Number</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>Document Header Text</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Reference Document Number</t>
-  </si>
-  <si>
-    <t>Item Text</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>Assignment number</t>
   </si>
   <si>
@@ -471,21 +366,12 @@
     <t>You can view the data type for a field in row 8 (see 'Viewing Additional Information for Each Column' above). Depending on the field, one of the following data types may be required:</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Letters, numbers, and special characters are permitted. Preceding zeros are accepted as text.</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Enter numbers with decimals using either comma or decimal point. Number in sap user settings is accepted as well.</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Enter the date in ISO format only YYYY-MM-DD</t>
   </si>
   <si>
@@ -618,9 +504,6 @@
     <t>MPA_RETIREMENT_PARTIAL_MAIN</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>2022-01-05</t>
   </si>
   <si>
@@ -634,9 +517,6 @@
   </si>
   <si>
     <t>MPA</t>
-  </si>
-  <si>
-    <t>260</t>
   </si>
   <si>
     <t>MPA_RETIREMENT_PARTIAL_SUB_MAIN</t>
@@ -743,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1087,302 +967,302 @@
   <sheetData>
     <row r="1" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1273,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1408,19 +1288,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1428,16 +1308,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1445,16 +1325,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1462,16 +1342,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1479,13 +1359,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1493,16 +1373,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1510,13 +1387,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1524,13 +1401,16 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1538,13 +1418,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1552,13 +1435,16 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1566,16 +1452,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1583,16 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1600,13 +1480,13 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1614,13 +1494,13 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1628,13 +1508,13 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1642,13 +1522,13 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1656,13 +1536,13 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1670,13 +1550,13 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1684,13 +1564,13 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1698,13 +1578,13 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1712,13 +1592,13 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1726,13 +1606,13 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1740,13 +1620,13 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1754,16 +1634,13 @@
         <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1771,13 +1648,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1785,167 +1662,13 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1956,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD16"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1968,56 +1691,44 @@
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="57" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="57" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="58" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,41 +1804,8 @@
       <c r="Y4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2203,646 +1881,362 @@
       <c r="Y5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ8" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-    </row>
-    <row r="11" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-    </row>
-    <row r="12" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="B12" s="7" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-    </row>
-    <row r="13" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-    </row>
-    <row r="14" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-    </row>
-    <row r="15" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>204</v>
+        <v>171</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>199</v>
+        <v>160</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="O15" s="1">
         <v>10</v>
       </c>
-      <c r="W15" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E16" s="1">
-        <v>250</v>
+        <v>175</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="W16" s="10" t="s">
-        <v>199</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/04_retirement_template.xlsx
+++ b/04_retirement_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i503773/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C1E7AC-EA1F-4944-8DF6-4003BDC56E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E899322-0CA3-E549-8B54-3376E7935ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10160" yWindow="-28300" windowWidth="25600" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="178">
   <si>
     <t>Asset Mass Retirement</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>MPA_RETIREMENT_FULL_SUB_SUB</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>260</t>
   </si>
 </sst>
 </file>
@@ -1681,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1905,6 +1911,9 @@
       <c r="J6" s="8" t="s">
         <v>163</v>
       </c>
+      <c r="M6" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="N6" s="7" t="s">
         <v>61</v>
       </c>
@@ -1939,6 +1948,9 @@
       <c r="J7" s="8" t="s">
         <v>163</v>
       </c>
+      <c r="M7" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="N7" s="7" t="s">
         <v>61</v>
       </c>
@@ -1977,6 +1989,9 @@
       <c r="J8" s="8" t="s">
         <v>163</v>
       </c>
+      <c r="M8" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="N8" s="7" t="s">
         <v>61</v>
       </c>
@@ -2013,6 +2028,9 @@
       <c r="J9" s="8" t="s">
         <v>163</v>
       </c>
+      <c r="M9" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="N9" s="7" t="s">
         <v>61</v>
       </c>
@@ -2046,6 +2064,9 @@
       <c r="I10" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="M10" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="N10" s="7" t="s">
         <v>61</v>
       </c>
@@ -2076,6 +2097,9 @@
       <c r="I11" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="M11" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -2100,6 +2124,9 @@
       <c r="I12" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="M12" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="T12" s="7"/>
     </row>
@@ -2131,6 +2158,9 @@
       <c r="I13" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="M13" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="S13" s="7" t="s">
         <v>92</v>
@@ -2165,6 +2195,9 @@
       <c r="I14" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="M14" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="S14" s="7" t="s">
         <v>92</v>
@@ -2197,6 +2230,9 @@
       <c r="I15" s="10" t="s">
         <v>160</v>
       </c>
+      <c r="M15" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="O15" s="1">
         <v>10</v>
       </c>
@@ -2232,6 +2268,9 @@
       </c>
       <c r="I16" s="10" t="s">
         <v>160</v>
+      </c>
+      <c r="M16" s="1">
+        <v>250</v>
       </c>
       <c r="S16" s="7" t="s">
         <v>92</v>
